--- a/biology/Zoologie/Cyprinidae/Cyprinidae.xlsx
+++ b/biology/Zoologie/Cyprinidae/Cyprinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cyprinidae (Cyprinidés en français) sont la plus grande famille de poissons d'eau douce, comprenant environ 3 000 espèces réparties dans 370 genres[1],[2]. Ces espèces ont une importance considérable du fait de leur pêche et de leur élevage en pisciculture pour l'alimentation humaine et en aquariophilie. La famille des cyprinidés regroupe notamment les carpes, les goujons, les vairons et associées (les barbes – comme les barbus - et barbeaux, etc.), ainsi que les poissons rouges. Communément appelée famille des carpes ou famille des ménés, ses membres sont également connus comme les cyprinidés. La famille appartient à l'ordre Cypriniformes, dont les familles et genres regroupent plus des deux–tiers des espèces de poissons connus[2],[1],[3]. Le nom de famille est un dérivé du grec ancien κυπρίνος / kyprínos, « carpe ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cyprinidae (Cyprinidés en français) sont la plus grande famille de poissons d'eau douce, comprenant environ 3 000 espèces réparties dans 370 genres,. Ces espèces ont une importance considérable du fait de leur pêche et de leur élevage en pisciculture pour l'alimentation humaine et en aquariophilie. La famille des cyprinidés regroupe notamment les carpes, les goujons, les vairons et associées (les barbes – comme les barbus - et barbeaux, etc.), ainsi que les poissons rouges. Communément appelée famille des carpes ou famille des ménés, ses membres sont également connus comme les cyprinidés. La famille appartient à l'ordre Cypriniformes, dont les familles et genres regroupent plus des deux–tiers des espèces de poissons connus. Le nom de famille est un dérivé du grec ancien κυπρίνος / kyprínos, « carpe ».
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour désigner certaines espèces, on utilise des termes vernaculaires : carpe, ménés ou vairons, brème, barbeau, goujon, carassin, poisson rouge… Comme plusieurs espèces ont été domestiquées, il existe en outre de nombreux noms de sous-espèces. Le terme « carpe » peut être utilisé génériquement pour désigner toute la famille, voire l'ordre[4].
-Le premier à utiliser le terme « cyprinidés » semble être Antoine Risso en 1825 dans Ichthyologie de Nice d'après Louis Agassiz[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour désigner certaines espèces, on utilise des termes vernaculaires : carpe, ménés ou vairons, brème, barbeau, goujon, carassin, poisson rouge… Comme plusieurs espèces ont été domestiquées, il existe en outre de nombreux noms de sous-espèces. Le terme « carpe » peut être utilisé génériquement pour désigner toute la famille, voire l'ordre.
+Le premier à utiliser le terme « cyprinidés » semble être Antoine Risso en 1825 dans Ichthyologie de Nice d'après Louis Agassiz.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Origines de cette famille et variations des tailles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les poissons de cette famille sont originaires d'Amérique du Nord, d’Afrique et d’Eurasie. Le plus grand membre est la barbe géante, Catlocarpio siamensis, qui peut atteindre jusqu'à 3 m de longueur et 300 kg[6]. La plus grande espèce d'Amérique du Nord semble être la « sauvagesse du Colorado », Ptychocheilus lucius, dont les plus grands spécimens reportés mesuraient jusqu'à 1,8 m de long[7], semble-t-il pour un poids de plus de 45 kg. De nombreuses espèces sont plus petites, ne dépassant pas les 5 cm. Le plus petit poisson connu est Paedocypris progenetica, qui n'atteint pas plus de 1,3 cm de longueur[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les poissons de cette famille sont originaires d'Amérique du Nord, d’Afrique et d’Eurasie. Le plus grand membre est la barbe géante, Catlocarpio siamensis, qui peut atteindre jusqu'à 3 m de longueur et 300 kg. La plus grande espèce d'Amérique du Nord semble être la « sauvagesse du Colorado », Ptychocheilus lucius, dont les plus grands spécimens reportés mesuraient jusqu'à 1,8 m de long, semble-t-il pour un poids de plus de 45 kg. De nombreuses espèces sont plus petites, ne dépassant pas les 5 cm. Le plus petit poisson connu est Paedocypris progenetica, qui n'atteint pas plus de 1,3 cm de longueur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille de poissons est caractérisée par une tête forte, une bouche peu fendue, un corps écailleux, la nageoire dorsale précédée d'un rayon osseux, et la nageoire anale armée d'un fort aiguillon[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille de poissons est caractérisée par une tête forte, une bouche peu fendue, un corps écailleux, la nageoire dorsale précédée d'un rayon osseux, et la nageoire anale armée d'un fort aiguillon.
 Les cyprinidés sont des poissons munis de mâchoires édentées avec un estomac restreint (à digestion moindre). La nourriture est efficacement mâchée par les branchies du dernier arc spécialisé. Ces dents pharyngées permettent au poisson de faire des mouvements de mastication contre une plaque de mastication, formée par une plaque osseuse du crâne. Les dents pharyngées sont spécifiquement présentes chez un certain nombre d’espèces et sont utilisées par les spécialistes pour déterminer ces espèces. Ces puissantes dents pharyngées permettent aux poissons comme la carpe ou l’ide commun de manger des appâts durs tels que des escargots et des bivalves.
 Chez les cyprinidés l’ouïe est un sens bien développé. Depuis l'organe Wébérien, trois véritables apophyses spécialisées transfèrent le mouvement des gaz de la vessie vers l'oreille interne. Ces apophyses sont également utilisées pour le déplacement dans la colonne d’eau, elles régulent les mouvements de la vessie et du flux gazeux en fonction des conditions atmosphériques ou des changements de profondeur.
 Les cyprinidés sont physostomes : chez les spécimens adultes la vessie natatoire est capable d’emmagasiner des excès de gaz qui peuvent être utilisés de manière plus modulable, permettant ainsi aux poissons de se déplacer plus librement et rapidement dans la colonne d’eau et sans risque que la vessie explose (à l’inverse physoclisti).
@@ -609,7 +627,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des cyprinidés se nourrissent principalement d'invertébrés et de végétation, probablement en raison de l'absence de dents et de leur l’estomac restreint ; mais certaines espèces, comme Aspius aspius, sont spécialisées à tendance piscivore. De nombreuses espèces (Leuciscus idus, Scardinius erythrophthalmus) mangent de petits poissons une fois qu’ils atteignent une certaine taille. Certaines petites espèces, comme Leucaspius delineatus, peuvent manger des larves de grenouilles communes dans des circonstances artificielles ou en milieux clos.
 Certains poissons comme la carpe sont spécialisés végétariens, d'autres comme le Chondrostoma nasus sont algivores (ou alguivores = qui mangent les algues « chez cette espèce principalement sur les surfaces dures »), tandis que d'autres comme la carpe noire (Mylopharyngodon piceus) se spécialisent dans les escargots, et enfin certains comme la carpe argentée (Hypophthalmichthys molitrix), sont des filtreurs spécialisés. Ces divers modes d’alimentations sont souvent présentés et utilisés comme outils de gestion pour contrôler divers facteurs environnementaux aquatiques, tels que les végétations aquatiques et les maladies transmises par les escargots.
@@ -641,7 +661,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille Probarbinae
 Catlocarpio
@@ -657,7 +679,7 @@
 Tribu Labeonini
 Bangana
 Cirrhinus
-Decourus[12]
+Decourus
 Gymnostomus
 Incisilabeo
 Labeo
@@ -678,13 +700,13 @@
 Thynnichthys
 clade Semilabeo
 Ageneiogarra
-Altigena[12]
+Altigena
 Cophecheilus
 Discogobio
 Hongshuia
 Linichthys
 Mekongina
-Paraqianlabeo [12]
+Paraqianlabeo 
 Parasinilabeo
 Placocheilus
 Prolixicheilus
@@ -694,12 +716,12 @@
 Qianlabeo
 Rectoris
 Semilabeo
-Sinigarra [13]
+Sinigarra 
 Sinocrossocheilus
-Stenorynchoacrum [14]
+Stenorynchoacrum 
 Sous-famille Torinae
 Acapoeta
-Arabibarbus [15]
+Arabibarbus 
 Barbopsis
 Carasobarbus
 Hypselobarbus
@@ -720,24 +742,24 @@
 Chagunius
 Clypeobarbus
 Coptostomabarbus
-Dawkinsia [16]
-Desmopuntius [17]
+Dawkinsia 
+Desmopuntius 
 Eechathalakenda
 Enteromius
-Haludaria [18]
+Haludaria 
 Hampala
-Oliotius [17]
+Oliotius 
 Oreichthys
 Osteobrama
-Pethia [16]
+Pethia 
 Prolabeo
 Prolabeops
 Pseudobarbus
-Puntigrus [17]
+Puntigrus 
 Puntius
 Rohtee
 Sahyadria
-Striuntius [17]
+Striuntius 
 Systomus
 Xenobarbus
 Sous-famille Cyprininae [incl. Barbinae]
@@ -802,7 +824,7 @@
 Tribu Barbini
 Aulopyge
 Barbus
-†Hsianwenia[19]
+†Hsianwenia
 Caecocypris
 Capoeta
 Cyprinion
@@ -815,7 +837,7 @@
 Tribu Paedocypridini
 Paedocypris
 Tribu Sundadanionini
-Fangfangia [20]
+Fangfangia 
 Sundadanio
 Tribu Rasborini
 Amblypharyngodon
@@ -926,7 +948,7 @@
 Belligobio
 Hemibarbus
 Squalidus
-Tribu Gobionini [21]
+Tribu Gobionini 
 Sous-tribu Gobiobotiina
 Gobiobotia
 Xenophysogobio
@@ -1005,7 +1027,7 @@
 Chondrostoma
 Iberochondrostoma
 Leucaspius
-Leucos [22]
+Leucos 
 Parachondrostoma
 Petroleuciscus
 Phoxinellus
@@ -1013,7 +1035,7 @@
 Pseudochondrostoma
 Pseudophoxinus
 Rutilus
-Sarmarutilus [22]
+Sarmarutilus 
 Scardinius
 Squalius
 Telestes
@@ -1079,7 +1101,43 @@
 Tampichthys
 ?Tribolodon
 ?Yuriria
-Incertae sedis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyprinidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyprinidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Incertae sedis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanthalburnus
 Acrocheilus
 Ancherythroculter
